--- a/pytigon/prj/schpytigondemo/templates/templates_demo/v_excel_report.xlsx
+++ b/pytigon/prj/schpytigondemo/templates/templates_demo/v_excel_report.xlsx
@@ -25,7 +25,7 @@
     <author> </author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0">
+    <comment ref="F2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -43,18 +43,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">Title</t>
   </si>
   <si>
-    <t xml:space="preserve">Value</t>
+    <t xml:space="preserve">Value int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value str</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TEST</t>
   </si>
   <si>
     <t xml:space="preserve">{{row.0}}</t>
   </si>
   <si>
-    <t xml:space="preserve">:?{{row.1}}</t>
+    <t xml:space="preserve">:0{{row.1}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:*{{row.1}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:=1+2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X</t>
   </si>
 </sst>
 </file>
@@ -155,13 +173,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -170,13 +188,31 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/pytigon/prj/schpytigondemo/templates/templates_demo/v_excel_report.xlsx
+++ b/pytigon/prj/schpytigondemo/templates/templates_demo/v_excel_report.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">Title</t>
   </si>
@@ -63,7 +64,34 @@
     <t xml:space="preserve">{{row.0}}</t>
   </si>
   <si>
-    <t xml:space="preserve">:0{{row.1}}</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">:0{{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFC9211E"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ow.1}}</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">:*{{row.1}}</t>
@@ -72,7 +100,16 @@
     <t xml:space="preserve">:=1+2</t>
   </si>
   <si>
-    <t xml:space="preserve">X</t>
+    <t xml:space="preserve">{{**X**}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:0{{2}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:0{{4}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">:=A1*B1</t>
   </si>
 </sst>
 </file>
@@ -82,7 +119,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -103,6 +140,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFC9211E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -165,6 +209,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FFC9211E"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -175,11 +279,11 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.72265625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -225,4 +329,45 @@
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="e">
+        <f aca="false">A1*B1</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>